--- a/doc/sample/sample.xlsx
+++ b/doc/sample/sample.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fukuzawa/Takaki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13840589-5C2E-5A44-B205-499654328F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56120D67-4A81-A34E-80BF-A1BEC1AD5C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16360" xr2:uid="{3A054A89-5C11-D14A-9E30-03223E172EE7}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16360" activeTab="1" xr2:uid="{3A054A89-5C11-D14A-9E30-03223E172EE7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="更新履歴" sheetId="1" r:id="rId1"/>
+    <sheet name="sample_table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,11 +35,196 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>仮</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="39">
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sampletable作成</t>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理テーブル名</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理テーブル名</t>
+    <rPh sb="0" eb="2">
+      <t>ロンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福澤</t>
+    <rPh sb="0" eb="2">
+      <t>フクザワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日</t>
+    <rPh sb="0" eb="3">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新者</t>
     <rPh sb="0" eb="1">
-      <t>カリ</t>
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理名</t>
+    <rPh sb="0" eb="3">
+      <t>ブツリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理名</t>
+    <rPh sb="0" eb="3">
+      <t>ロンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ddd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ggg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hhh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iii</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jjj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kkk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lll</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nnn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ooo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ppp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qqq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rrr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ttt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値</t>
+    <rPh sb="0" eb="2">
+      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -47,7 +233,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -63,21 +252,95 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -86,8 +349,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -404,18 +691,712 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20974A7B-8C87-7349-A586-D017C54C5A53}">
-  <dimension ref="B2"/>
+  <dimension ref="B3:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="3" max="3" width="63.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
+    <row r="3" spans="2:3">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="2">
+        <v>44371</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04ACF93-0831-6144-BB76-F8D904842F1A}">
+  <dimension ref="A2:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/sample/sample.xlsx
+++ b/doc/sample/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fukuzawa/Takaki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56120D67-4A81-A34E-80BF-A1BEC1AD5C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1071CAF-7DEE-EE47-B2D0-943948FDD48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16360" activeTab="1" xr2:uid="{3A054A89-5C11-D14A-9E30-03223E172EE7}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16360" xr2:uid="{3A054A89-5C11-D14A-9E30-03223E172EE7}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -225,6 +225,20 @@
     <t>数値</t>
     <rPh sb="0" eb="2">
       <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample_table aaaのキー欄を更新</t>
+    <rPh sb="19" eb="20">
+      <t>ラn</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウシn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -234,7 +248,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -359,7 +373,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -691,9 +705,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20974A7B-8C87-7349-A586-D017C54C5A53}">
-  <dimension ref="B3:C13"/>
+  <dimension ref="B3:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -702,55 +716,68 @@
     <col min="3" max="3" width="63.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" s="2">
         <v>44371</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="2:3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="2">
+        <v>44371</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:4">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:4">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:4">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:4">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:4">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:4">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:4">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
@@ -764,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04ACF93-0831-6144-BB76-F8D904842F1A}">
   <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -809,7 +836,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -882,7 +909,9 @@
       <c r="I9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11">
